--- a/pred_ohlcv/54_21/2019-11-15 XVG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-15 XVG ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>3340940.92093538</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>3340940.92093538</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>3340940.92093538</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>3340320.13683538</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>3159218.13683538</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>3159218.13683538</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>3410368.13683538</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>3410368.13683538</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>2673222.10583538</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>2692062.10583538</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>2692062.10583538</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>3282883.10583538</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>3916952.10583538</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>4961074.345057992</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>4247492.734657993</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>3947777.960657992</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>3963703.950057992</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>4159950.583557992</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>5028539.096657992</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>5253018.868957993</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>2848234.284457993</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>4433051.971157992</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>3248957.576057992</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>2558977.779057992</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>2558977.779057992</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>2597794.211031902</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>2458349.988074762</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>1593164.711874762</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>1593164.711874762</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-3950585.14339858</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-2033274.232127989</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-2097613.128688499</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-2014304.128688499</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-1934304.128688499</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-1955597.607088499</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-1963320.063088499</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-1933320.063088499</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-1933320.063088499</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-1933320.063088499</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-2280286.267588499</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-1927767.030188499</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-1595601.144088499</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-4977847.277113169</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-4159613.789513169</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-3532024.432513169</v>
       </c>
       <c r="H199">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-3532024.432513169</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-3326853.991513169</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-3531293.439113169</v>
       </c>
       <c r="H204">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-3535050.167813169</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-3577936.038213169</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-3448275.753913169</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-3448275.753913169</v>
       </c>
       <c r="H218">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-3811846.934813169</v>
       </c>
       <c r="H220">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-3812011.407913169</v>
       </c>
       <c r="H221">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-3898041.729313169</v>
       </c>
       <c r="H222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-3824496.685013168</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-3975786.460113169</v>
       </c>
       <c r="H224">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-4002849.320413169</v>
       </c>
       <c r="H225">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-3957898.979613169</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-6596606.158713168</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-6197606.158713168</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-5652178.927313169</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-5654163.035513168</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-5516421.449213169</v>
       </c>
       <c r="H248">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-5516421.449213169</v>
       </c>
       <c r="H249">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-5516421.449213169</v>
       </c>
       <c r="H250">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-5336558.449213169</v>
       </c>
       <c r="H251">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-5336558.449213169</v>
       </c>
       <c r="H252">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-5336558.449213169</v>
       </c>
       <c r="H253">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-5336558.449213169</v>
       </c>
       <c r="H254">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-5534771.747613168</v>
       </c>
       <c r="H255">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-5526684.858113169</v>
       </c>
       <c r="H256">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-5649307.774513169</v>
       </c>
       <c r="H257">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-5649307.774513169</v>
       </c>
       <c r="H258">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-5649307.774513169</v>
       </c>
       <c r="H259">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-6637912.995513169</v>
       </c>
       <c r="H260">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-6727529.827813169</v>
       </c>
       <c r="H262">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-6695460.827813169</v>
       </c>
       <c r="H263">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-6923713.807513169</v>
       </c>
       <c r="H264">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-6943413.007413169</v>
       </c>
       <c r="H265">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-6943314.897413169</v>
       </c>
       <c r="H266">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-5945034.927813169</v>
       </c>
       <c r="H267">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-5915034.927813169</v>
       </c>
       <c r="H268">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-5920034.927813169</v>
       </c>
       <c r="H269">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-5965034.927813169</v>
       </c>
       <c r="H270">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-5483601.135513169</v>
       </c>
       <c r="H271">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-5483601.135513169</v>
       </c>
       <c r="H272">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-5879711.740413168</v>
       </c>
       <c r="H273">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-5879711.740413168</v>
       </c>
       <c r="H274">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-6737992.639813168</v>
       </c>
       <c r="H275">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-6781992.639813168</v>
       </c>
       <c r="H276">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-6699636.612413168</v>
       </c>
       <c r="H277">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-6448109.209513168</v>
       </c>
       <c r="H278">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-6448109.209513168</v>
       </c>
       <c r="H279">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-6528287.008813168</v>
       </c>
       <c r="H285">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-6577711.464513168</v>
       </c>
       <c r="H286">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-6577711.464413168</v>
       </c>
       <c r="H287">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-6577711.464413168</v>
       </c>
       <c r="H288">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-6577711.464413168</v>
       </c>
       <c r="H289">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-6338474.273213168</v>
       </c>
       <c r="H290">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-6338474.273213168</v>
       </c>
       <c r="H291">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-6363474.273213168</v>
       </c>
       <c r="H292">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-6185294.871113168</v>
       </c>
       <c r="H293">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-6093770.712813168</v>
       </c>
       <c r="H294">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-6267776.099913168</v>
       </c>
       <c r="H295">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-6266117.599913168</v>
       </c>
       <c r="H296">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-6276787.599913168</v>
       </c>
       <c r="H297">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-6214034.387213168</v>
       </c>
       <c r="H298">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-6154013.494313167</v>
       </c>
       <c r="H299">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-5883197.588213167</v>
       </c>
       <c r="H300">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-5883197.588213167</v>
       </c>
       <c r="H301">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-5866942.750913167</v>
       </c>
       <c r="H302">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-5331220.611313167</v>
       </c>
       <c r="H303">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-5287965.368313167</v>
       </c>
       <c r="H304">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-3507879.096413167</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-3507879.096413167</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-3566207.689813167</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-3452064.610413167</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-3452064.610413167</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-3484064.610413167</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-3439355.459513167</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-3527553.131613167</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-3442346.671613167</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-2944347.679913167</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-1242646.777857947</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-751164.2077579469</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-1688678.505257947</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-2114679.613457947</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-1971173.460757947</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-2108866.948957947</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-1366866.948957947</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-1449837.473257947</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>53727.289342053</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-2827055.573337246</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>10613560.76747116</v>
       </c>
       <c r="H463">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>9673813.634671155</v>
       </c>
       <c r="H464">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>9094100.163371155</v>
       </c>
       <c r="H465">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>8971766.289471155</v>
       </c>
       <c r="H469">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>8687936.964371154</v>
       </c>
       <c r="H473">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>18758828.58255803</v>
       </c>
       <c r="H663">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>17869867.10305803</v>
       </c>
       <c r="H664">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>18463273.95295803</v>
       </c>
       <c r="H665">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>18521849.95295803</v>
       </c>
       <c r="H666">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>18521849.95295803</v>
       </c>
       <c r="H667">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>18450489.69555803</v>
       </c>
       <c r="H668">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>19666169.24735803</v>
       </c>
       <c r="H669">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>19555179.69475803</v>
       </c>
       <c r="H670">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>18631288.89575803</v>
       </c>
       <c r="H671">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>18634088.17385803</v>
       </c>
       <c r="H672">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>17945839.72385803</v>
       </c>
       <c r="H673">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>18562631.76375803</v>
       </c>
       <c r="H674">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>18561464.09645803</v>
       </c>
       <c r="H675">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>18528488.04645803</v>
       </c>
       <c r="H676">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>18468740.16685803</v>
       </c>
       <c r="H677">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>18715037.89575803</v>
       </c>
       <c r="H678">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>18715037.89575803</v>
       </c>
       <c r="H679">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>18809792.89575803</v>
       </c>
       <c r="H680">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>17206085.12345803</v>
       </c>
       <c r="H681">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>17879495.87785803</v>
       </c>
       <c r="H682">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>18555782.71485803</v>
       </c>
       <c r="H683">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>18969036.27655803</v>
       </c>
       <c r="H684">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>17976618.13429524</v>
       </c>
       <c r="H685">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>17774390.44499524</v>
       </c>
       <c r="H686">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>17341602.80099524</v>
       </c>
       <c r="H687">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>16715060.16819524</v>
       </c>
       <c r="H688">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>16715407.29759524</v>
       </c>
       <c r="H689">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>16449396.39519524</v>
       </c>
       <c r="H690">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>16452793.57669524</v>
       </c>
       <c r="H691">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>16029088.49549524</v>
       </c>
       <c r="H692">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>16031490.79069524</v>
       </c>
       <c r="H693">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>16037691.93829524</v>
       </c>
       <c r="H694">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>16037691.93829524</v>
       </c>
       <c r="H695">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>16051182.93829524</v>
       </c>
       <c r="H696">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>16051182.93829524</v>
       </c>
       <c r="H697">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>15682722.14829524</v>
       </c>
       <c r="H698">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>15677620.94669524</v>
       </c>
       <c r="H699">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>16177620.94669524</v>
       </c>
       <c r="H700">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>15469764.43319524</v>
       </c>
       <c r="H701">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>15469764.43319524</v>
       </c>
       <c r="H702">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>15386198.51719525</v>
       </c>
       <c r="H703">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>15418927.14572127</v>
       </c>
       <c r="H704">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>15257118.29872127</v>
       </c>
       <c r="H705">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>15257118.29872127</v>
       </c>
       <c r="H706">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>14565419.10882127</v>
       </c>
       <c r="H707">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>14565558.05512127</v>
       </c>
       <c r="H708">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>14439024.76642127</v>
       </c>
       <c r="H709">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="710" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-15 XVG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-15 XVG ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>3340940.92093538</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>4961074.345057992</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>4247492.734657993</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>3947777.960657992</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>3963703.950057992</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>4159950.583557992</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>5028539.096657992</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>5253018.868957993</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>2848234.284457993</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>4433051.971157992</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>3248957.576057992</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>2558977.779057992</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>2558977.779057992</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>2597794.211031902</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>2458349.988074762</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>1593164.711874762</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>1593164.711874762</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-3950585.14339858</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-2033274.232127989</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-2097613.128688499</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-2014304.128688499</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-1934304.128688499</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-1955597.607088499</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-1963320.063088499</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-1933320.063088499</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-1933320.063088499</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-1933320.063088499</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-2280286.267588499</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-1927767.030188499</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-1595601.144088499</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-4159613.789513169</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-6596606.158713168</v>
       </c>
       <c r="H233">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-6197606.158713168</v>
       </c>
       <c r="H234">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-5652178.927313169</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-5654163.035513168</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-5273199.213013168</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-5516421.449213169</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-5336558.449213169</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-5336558.449213169</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-5336558.449213169</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-5336558.449213169</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-5534771.747613168</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-5526684.858113169</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-5649307.774513169</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-5649307.774513169</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-5649307.774513169</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-6637912.995513169</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-6647740.995513169</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-6727529.827813169</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-6695460.827813169</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-6923713.807513169</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-6943413.007413169</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-6943314.897413169</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-5945034.927813169</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-5915034.927813169</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-5920034.927813169</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-5965034.927813169</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-5483601.135513169</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-5483601.135513169</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-5879711.740413168</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-5879711.740413168</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-6737992.639813168</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-6781992.639813168</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-6699636.612413168</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-6448109.209513168</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-6448109.209513168</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-6577711.464513168</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-6577711.464413168</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-6577711.464413168</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-6577711.464413168</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-6338474.273213168</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-6338474.273213168</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-6363474.273213168</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-6185294.871113168</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-6093770.712813168</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-6267776.099913168</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-6266117.599913168</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-6276787.599913168</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-6214034.387213168</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-6154013.494313167</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-5883197.588213167</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-5883197.588213167</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-5866942.750913167</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-5331220.611313167</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-5287965.368313167</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-5166730.335413167</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-5179286.335413167</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-5341089.588713167</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-5025085.588713167</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-5218465.754513167</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-3724020.860613167</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-3507879.096413167</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-3507879.096413167</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-3566207.689813167</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-3452064.610413167</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-3452064.610413167</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-3484064.610413167</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-3439355.459513167</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-3527553.131613167</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-3442346.671613167</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-3512435.277013167</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-2944347.679913167</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-1242646.777857947</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-751164.2077579469</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-1688678.505257947</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-2114679.613457947</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-1971173.460757947</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-2108866.948957947</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-1366866.948957947</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-1449837.473257947</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>53727.289342053</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-2827055.573337246</v>
       </c>
       <c r="H423">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>10613560.76747116</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>9673813.634671155</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>9094100.163371155</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>9301186.639371155</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>7389429.894571155</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>8971766.289471155</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>8446573.143671155</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>9376522.213971155</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>9375430.879571155</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>11114596.20177115</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>10813322.11547115</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>9816126.322971152</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>9920021.937371152</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>9920021.937371152</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>9639660.745571151</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>9640443.044271151</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>9640443.044271151</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>9698129.044271151</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>9528758.808371151</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>10355010.16727115</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>10700933.91667115</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>10700933.91667115</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>11001147.10567115</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>12463625.12707115</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>12326825.32247115</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>11750128.97797115</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>11566473.33357115</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>11101062.06247115</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>12040929.02997115</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>11756264.44757115</v>
       </c>
       <c r="H499">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>12687203.03337115</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>12687203.03337115</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>12687203.03337115</v>
       </c>
       <c r="H502">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>11778479.80427115</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>12871649.89462263</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>12372188.71892263</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>12477629.96382263</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>12404314.92132263</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>12320104.14372263</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>12489397.14372263</v>
       </c>
       <c r="H509">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>12324902.36412263</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>12324902.36412263</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>12324902.36412263</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>12590333.14752263</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>12628928.01162263</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>12715816.01962263</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>12715816.01962263</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>13334934.54972262</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>13334934.54972262</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>13017980.19092263</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>13193413.66442263</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>13165751.66442263</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>13165751.66442263</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>13177750.26142262</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>13177750.26142262</v>
       </c>
       <c r="H524">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>13084100.68978211</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>13275267.26168211</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>13245267.26168211</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>13245348.69498211</v>
       </c>
       <c r="H528">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>13211528.96068211</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>12177646.72192723</v>
       </c>
       <c r="H530">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>11655373.50792723</v>
       </c>
       <c r="H531">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>11610706.67232723</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>11665825.29882723</v>
       </c>
       <c r="H533">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>11667565.11072722</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>11667565.11072722</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>11667565.11072722</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>11667565.11072722</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>11684065.11072722</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>11709130.62402722</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>11706014.06242722</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>11745559.09142722</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>10948557.14992722</v>
       </c>
       <c r="H542">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>10977779.92752722</v>
       </c>
       <c r="H543">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>10988628.68652722</v>
       </c>
       <c r="H544">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>10988396.44552722</v>
       </c>
       <c r="H545">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>10739158.02792722</v>
       </c>
       <c r="H546">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>10739240.02792722</v>
       </c>
       <c r="H547">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>10660240.02792722</v>
       </c>
       <c r="H548">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>10660322.02792722</v>
       </c>
       <c r="H549">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>10152415.77012722</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>11692028.38102722</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>11692028.38102722</v>
       </c>
       <c r="H552">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>11650147.99372722</v>
       </c>
       <c r="H553">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>11650229.99372722</v>
       </c>
       <c r="H554">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>11836871.66522722</v>
       </c>
       <c r="H556">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>11795373.81412722</v>
       </c>
       <c r="H557">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>11699042.58292722</v>
       </c>
       <c r="H558">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>11020415.51197189</v>
       </c>
       <c r="H565">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>12541237.14577189</v>
       </c>
       <c r="H579">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>18029407.77274614</v>
       </c>
       <c r="H645">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>16989999.10185803</v>
       </c>
       <c r="H653">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>18444392.78625803</v>
       </c>
       <c r="H662">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>18758828.58255803</v>
       </c>
       <c r="H663">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>17869867.10305803</v>
       </c>
       <c r="H664">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>18463273.95295803</v>
       </c>
       <c r="H665">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>18521849.95295803</v>
       </c>
       <c r="H666">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>18521849.95295803</v>
       </c>
       <c r="H667">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>18450489.69555803</v>
       </c>
       <c r="H668">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>19666169.24735803</v>
       </c>
       <c r="H669">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>19555179.69475803</v>
       </c>
       <c r="H670">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>18631288.89575803</v>
       </c>
       <c r="H671">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>18634088.17385803</v>
       </c>
       <c r="H672">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>17945839.72385803</v>
       </c>
       <c r="H673">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>18562631.76375803</v>
       </c>
       <c r="H674">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>18561464.09645803</v>
       </c>
       <c r="H675">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>18528488.04645803</v>
       </c>
       <c r="H676">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>18468740.16685803</v>
       </c>
       <c r="H677">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>18715037.89575803</v>
       </c>
       <c r="H678">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>18715037.89575803</v>
       </c>
       <c r="H679">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>18809792.89575803</v>
       </c>
       <c r="H680">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>17206085.12345803</v>
       </c>
       <c r="H681">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>17879495.87785803</v>
       </c>
       <c r="H682">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>18555782.71485803</v>
       </c>
       <c r="H683">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>18969036.27655803</v>
       </c>
       <c r="H684">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>17976618.13429524</v>
       </c>
       <c r="H685">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>17774390.44499524</v>
       </c>
       <c r="H686">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>17341602.80099524</v>
       </c>
       <c r="H687">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>16715060.16819524</v>
       </c>
       <c r="H688">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>16715407.29759524</v>
       </c>
       <c r="H689">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>16449396.39519524</v>
       </c>
       <c r="H690">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>16452793.57669524</v>
       </c>
       <c r="H691">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>16029088.49549524</v>
       </c>
       <c r="H692">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>16031490.79069524</v>
       </c>
       <c r="H693">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>16037691.93829524</v>
       </c>
       <c r="H694">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>16037691.93829524</v>
       </c>
       <c r="H695">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>16051182.93829524</v>
       </c>
       <c r="H696">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>16051182.93829524</v>
       </c>
       <c r="H697">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>15682722.14829524</v>
       </c>
       <c r="H698">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>15677620.94669524</v>
       </c>
       <c r="H699">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>16177620.94669524</v>
       </c>
       <c r="H700">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>15469764.43319524</v>
       </c>
       <c r="H701">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>15469764.43319524</v>
       </c>
       <c r="H702">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>15386198.51719525</v>
       </c>
       <c r="H703">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>15418927.14572127</v>
       </c>
       <c r="H704">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>15257118.29872127</v>
       </c>
       <c r="H705">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>15257118.29872127</v>
       </c>
       <c r="H706">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>14565419.10882127</v>
       </c>
       <c r="H707">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>14565558.05512127</v>
       </c>
       <c r="H708">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>14439024.76642127</v>
       </c>
       <c r="H709">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>14375472.82802127</v>
       </c>
       <c r="H710">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>13666023.12242127</v>
       </c>
       <c r="H711">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>13684041.49542127</v>
       </c>
       <c r="H712">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>13903963.72711709</v>
       </c>
       <c r="H725">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>13986754.0852113</v>
       </c>
       <c r="H726">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>13826902.8043113</v>
       </c>
       <c r="H727">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>14013087.7565113</v>
       </c>
       <c r="H728">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>14046415.3102113</v>
       </c>
       <c r="H729">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>13939103.1333113</v>
       </c>
       <c r="H730">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>13528642.0976113</v>
       </c>
       <c r="H731">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>13528281.9446113</v>
       </c>
       <c r="H732">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>13632304.5616113</v>
       </c>
       <c r="H733">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>13581456.4125113</v>
       </c>
       <c r="H734">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>13581540.8964113</v>
       </c>
       <c r="H735">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>11354116.8180113</v>
       </c>
       <c r="H736">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>11455565.8408126</v>
       </c>
       <c r="H737">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="738" spans="1:8">
